--- a/exports/statistics/analysis_cortisol_raw_condition.xlsx
+++ b/exports/statistics/analysis_cortisol_raw_condition.xlsx
@@ -56,7 +56,7 @@
     <t>night_id</t>
   </si>
   <si>
-    <t>fdr_bh</t>
+    <t>bonf</t>
   </si>
   <si>
     <t>W</t>
@@ -83,12 +83,12 @@
     <t>S4</t>
   </si>
   <si>
+    <t>Spontaneous</t>
+  </si>
+  <si>
     <t>Known Alarm</t>
   </si>
   <si>
-    <t>Spontaneous</t>
-  </si>
-  <si>
     <t>Unknown Alarm</t>
   </si>
   <si>
@@ -194,88 +194,88 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>3.681e+16</t>
-  </si>
-  <si>
-    <t>3.274e+18</t>
-  </si>
-  <si>
-    <t>2.517e+13</t>
-  </si>
-  <si>
-    <t>3.043e+07</t>
-  </si>
-  <si>
-    <t>1.964e+08</t>
-  </si>
-  <si>
-    <t>377.454</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>1016.175</t>
-  </si>
-  <si>
-    <t>5.347e+07</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.484</t>
+    <t>2.402e+17</t>
+  </si>
+  <si>
+    <t>6.145e+21</t>
+  </si>
+  <si>
+    <t>7.863e+14</t>
+  </si>
+  <si>
+    <t>2.041e+08</t>
+  </si>
+  <si>
+    <t>5.777e+08</t>
+  </si>
+  <si>
+    <t>253.009</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>138.04</t>
+  </si>
+  <si>
+    <t>4.281e+06</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.339</t>
   </si>
   <si>
     <t>0.252</t>
   </si>
   <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>1.663</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>1.591</t>
-  </si>
-  <si>
-    <t>6.737</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>16.939</t>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.331</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>4.595</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>4.078</t>
+  </si>
+  <si>
+    <t>8.588</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -745,10 +745,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.9350000000000001</v>
+        <v>0.927</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.739</v>
+        <v>0.954</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -775,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.966</v>
+        <v>0.961</v>
       </c>
       <c r="D5">
-        <v>0.252</v>
+        <v>0.236</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -792,13 +792,13 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.919</v>
+        <v>0.987</v>
       </c>
       <c r="D6">
-        <v>0.006</v>
+        <v>0.671</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -807,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.9370000000000001</v>
+        <v>0.912</v>
       </c>
       <c r="D7">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.966</v>
+        <v>0.953</v>
       </c>
       <c r="D8">
-        <v>0.244</v>
+        <v>0.132</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -839,13 +839,13 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.917</v>
+        <v>0.982</v>
       </c>
       <c r="D9">
-        <v>0.005</v>
+        <v>0.433</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -854,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.929</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -869,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
       <c r="D11">
-        <v>0.54</v>
+        <v>0.593</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -886,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>0.903</v>
+        <v>0.974</v>
       </c>
       <c r="D12">
-        <v>0.002</v>
+        <v>0.153</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -901,10 +901,10 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.975</v>
+        <v>0.957</v>
       </c>
       <c r="D13">
-        <v>0.133</v>
+        <v>0.168</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,10 +916,10 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>0.97</v>
+        <v>0.977</v>
       </c>
       <c r="D14">
-        <v>0.348</v>
+        <v>0.645</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.819</v>
+        <v>0.924</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.928</v>
+        <v>0.957</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -963,13 +963,13 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.948</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D17">
-        <v>0.059</v>
+        <v>0.048</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>0.446</v>
+        <v>0.007</v>
       </c>
       <c r="D3">
-        <v>0.641</v>
+        <v>0.993</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>0.382</v>
+        <v>0.215</v>
       </c>
       <c r="D4">
-        <v>0.6830000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>0.142</v>
+        <v>0.123</v>
       </c>
       <c r="D5">
-        <v>0.868</v>
+        <v>0.885</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1071,10 +1071,10 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>3.033</v>
+        <v>3.002</v>
       </c>
       <c r="D6">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1088,10 +1088,10 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>3.53</v>
+        <v>5.337</v>
       </c>
       <c r="D7">
-        <v>0.032</v>
+        <v>0.006</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1164,25 +1164,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>268.131</v>
+        <v>303.678</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F3">
-        <v>134.066</v>
+        <v>151.839</v>
       </c>
       <c r="G3">
-        <v>1.158</v>
+        <v>1.698</v>
       </c>
       <c r="H3">
-        <v>0.317</v>
+        <v>0.187</v>
       </c>
       <c r="J3">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3998.086</v>
+        <v>3329.049</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="F4">
-        <v>999.522</v>
+        <v>832.2619999999999</v>
       </c>
       <c r="G4">
-        <v>56.727</v>
+        <v>60.152</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.267</v>
+        <v>0.302</v>
       </c>
       <c r="K4">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1237,25 +1237,25 @@
         <v>41</v>
       </c>
       <c r="C5">
-        <v>929.212</v>
+        <v>697.109</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="F5">
-        <v>116.151</v>
+        <v>87.139</v>
       </c>
       <c r="G5">
-        <v>6.592</v>
+        <v>6.298</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.078</v>
+        <v>0.083</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-10.392</v>
+        <v>-10.893</v>
       </c>
       <c r="I3">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
@@ -1364,7 +1364,7 @@
         <v>58</v>
       </c>
       <c r="O3">
-        <v>-0.722</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-11.123</v>
+        <v>-12.624</v>
       </c>
       <c r="I4">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
@@ -1411,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="O4">
-        <v>-1.086</v>
+        <v>-1.247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1437,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-9.18</v>
+        <v>-9.907999999999999</v>
       </c>
       <c r="I5">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
@@ -1458,7 +1458,7 @@
         <v>60</v>
       </c>
       <c r="O5">
-        <v>-0.998</v>
+        <v>-1.127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-6.741</v>
+        <v>-7.162</v>
       </c>
       <c r="I6">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
@@ -1505,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="O6">
-        <v>-0.745</v>
+        <v>-0.862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1531,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-7.097</v>
+        <v>-7.362</v>
       </c>
       <c r="I7">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
@@ -1552,7 +1552,7 @@
         <v>62</v>
       </c>
       <c r="O7">
-        <v>-0.411</v>
+        <v>-0.413</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.237</v>
+        <v>-4.13</v>
       </c>
       <c r="I8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
@@ -1599,7 +1599,7 @@
         <v>63</v>
       </c>
       <c r="O8">
-        <v>-0.348</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1625,19 +1625,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.999</v>
+        <v>-0.97</v>
       </c>
       <c r="I9">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.319</v>
+        <v>0.334</v>
       </c>
       <c r="L9">
-        <v>0.342</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1646,7 +1646,7 @@
         <v>64</v>
       </c>
       <c r="O9">
-        <v>-0.092</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1672,19 +1672,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.952</v>
+        <v>0.539</v>
       </c>
       <c r="I10">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
       <c r="K10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="L10">
-        <v>0.342</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1693,7 +1693,7 @@
         <v>65</v>
       </c>
       <c r="O10">
-        <v>0.048</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1719,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.495</v>
+        <v>3.96</v>
       </c>
       <c r="I11">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
@@ -1740,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="O11">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1766,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6.849</v>
+        <v>6.394</v>
       </c>
       <c r="I12">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
@@ -1787,7 +1787,7 @@
         <v>67</v>
       </c>
       <c r="O12">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1801,11 +1801,11 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
@@ -1813,19 +1813,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.149</v>
+        <v>-0.654</v>
       </c>
       <c r="I13">
-        <v>72.282</v>
+        <v>68.95</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
       <c r="K13">
-        <v>0.882</v>
+        <v>0.515</v>
       </c>
       <c r="L13">
-        <v>0.882</v>
+        <v>1</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>68</v>
       </c>
       <c r="O13">
-        <v>-0.03</v>
+        <v>-0.136</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1848,7 +1848,7 @@
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1860,19 +1860,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-1.259</v>
+        <v>-1.673</v>
       </c>
       <c r="I14">
-        <v>80.498</v>
+        <v>69.502</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
       <c r="K14">
-        <v>0.212</v>
+        <v>0.099</v>
       </c>
       <c r="L14">
-        <v>0.318</v>
+        <v>0.297</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
@@ -1881,7 +1881,7 @@
         <v>69</v>
       </c>
       <c r="O14">
-        <v>-0.273</v>
+        <v>-0.388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1895,7 +1895,7 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -1907,19 +1907,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-1.389</v>
+        <v>-1.318</v>
       </c>
       <c r="I15">
-        <v>76.26300000000001</v>
+        <v>60.109</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
       </c>
       <c r="K15">
-        <v>0.169</v>
+        <v>0.193</v>
       </c>
       <c r="L15">
-        <v>0.318</v>
+        <v>0.579</v>
       </c>
       <c r="M15" t="s">
         <v>12</v>
@@ -1928,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="O15">
-        <v>-0.274</v>
+        <v>-0.286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1942,11 +1942,11 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
@@ -1954,19 +1954,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-0.6929999999999999</v>
+        <v>-0.256</v>
       </c>
       <c r="I16">
-        <v>107.52</v>
+        <v>74.392</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
       </c>
       <c r="K16">
-        <v>0.49</v>
+        <v>0.799</v>
       </c>
       <c r="L16">
-        <v>0.613</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
@@ -1975,7 +1975,7 @@
         <v>71</v>
       </c>
       <c r="O16">
-        <v>-0.121</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1989,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
@@ -2001,19 +2001,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1.452</v>
+        <v>1.133</v>
       </c>
       <c r="I17">
-        <v>79.28400000000001</v>
+        <v>70.88</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.151</v>
+        <v>0.261</v>
       </c>
       <c r="L17">
-        <v>0.324</v>
+        <v>1</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
@@ -2022,7 +2022,7 @@
         <v>72</v>
       </c>
       <c r="O17">
-        <v>0.315</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2036,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -2048,19 +2048,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2.175</v>
+        <v>1.565</v>
       </c>
       <c r="I18">
-        <v>113.174</v>
+        <v>76.212</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.032</v>
+        <v>0.122</v>
       </c>
       <c r="L18">
-        <v>0.139</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -2069,7 +2069,7 @@
         <v>73</v>
       </c>
       <c r="O18">
-        <v>0.365</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2083,11 +2083,11 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
@@ -2095,19 +2095,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-0.921</v>
+        <v>-1.018</v>
       </c>
       <c r="I19">
-        <v>77.089</v>
+        <v>62.564</v>
       </c>
       <c r="J19" t="s">
         <v>57</v>
       </c>
       <c r="K19">
-        <v>0.36</v>
+        <v>0.312</v>
       </c>
       <c r="L19">
-        <v>0.491</v>
+        <v>1</v>
       </c>
       <c r="M19" t="s">
         <v>12</v>
@@ -2116,7 +2116,7 @@
         <v>74</v>
       </c>
       <c r="O19">
-        <v>-0.182</v>
+        <v>-0.218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2130,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
@@ -2142,19 +2142,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.385</v>
+        <v>0.314</v>
       </c>
       <c r="I20">
-        <v>77.167</v>
+        <v>69.065</v>
       </c>
       <c r="J20" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.702</v>
+        <v>0.754</v>
       </c>
       <c r="L20">
-        <v>0.752</v>
+        <v>1</v>
       </c>
       <c r="M20" t="s">
         <v>12</v>
@@ -2163,7 +2163,7 @@
         <v>75</v>
       </c>
       <c r="O20">
-        <v>0.083</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2177,7 +2177,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -2189,19 +2189,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1.548</v>
+        <v>1.555</v>
       </c>
       <c r="I21">
-        <v>92.455</v>
+        <v>71.27800000000001</v>
       </c>
       <c r="J21" t="s">
         <v>57</v>
       </c>
       <c r="K21">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="L21">
-        <v>0.312</v>
+        <v>1</v>
       </c>
       <c r="M21" t="s">
         <v>12</v>
@@ -2210,7 +2210,7 @@
         <v>76</v>
       </c>
       <c r="O21">
-        <v>0.286</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2224,11 +2224,11 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
@@ -2236,19 +2236,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-0.428</v>
+        <v>-0.853</v>
       </c>
       <c r="I22">
-        <v>77.931</v>
+        <v>69.857</v>
       </c>
       <c r="J22" t="s">
         <v>57</v>
       </c>
       <c r="K22">
-        <v>0.67</v>
+        <v>0.397</v>
       </c>
       <c r="L22">
-        <v>0.752</v>
+        <v>1</v>
       </c>
       <c r="M22" t="s">
         <v>12</v>
@@ -2257,7 +2257,7 @@
         <v>77</v>
       </c>
       <c r="O22">
-        <v>-0.08400000000000001</v>
+        <v>-0.176</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2271,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
@@ -2283,19 +2283,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>-1.296</v>
+        <v>-1.564</v>
       </c>
       <c r="I23">
-        <v>80.51600000000001</v>
+        <v>70.687</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
       <c r="K23">
-        <v>0.199</v>
+        <v>0.122</v>
       </c>
       <c r="L23">
-        <v>0.373</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
@@ -2304,7 +2304,7 @@
         <v>78</v>
       </c>
       <c r="O23">
-        <v>-0.282</v>
+        <v>-0.363</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
@@ -2330,19 +2330,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>-1.092</v>
+        <v>-0.983</v>
       </c>
       <c r="I24">
-        <v>82.367</v>
+        <v>65.098</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.278</v>
+        <v>0.329</v>
       </c>
       <c r="L24">
-        <v>0.463</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
@@ -2351,7 +2351,7 @@
         <v>79</v>
       </c>
       <c r="O24">
-        <v>-0.21</v>
+        <v>-0.207</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2365,11 +2365,11 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
@@ -2377,19 +2377,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.283</v>
+        <v>-0.623</v>
       </c>
       <c r="I25">
-        <v>67.13500000000001</v>
+        <v>77.254</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
       </c>
       <c r="K25">
-        <v>0.778</v>
+        <v>0.535</v>
       </c>
       <c r="L25">
-        <v>0.778</v>
+        <v>1</v>
       </c>
       <c r="M25" t="s">
         <v>12</v>
@@ -2398,7 +2398,7 @@
         <v>80</v>
       </c>
       <c r="O25">
-        <v>0.059</v>
+        <v>-0.124</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2412,7 +2412,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
@@ -2424,19 +2424,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>-2.123</v>
+        <v>-2.651</v>
       </c>
       <c r="I26">
-        <v>80.10599999999999</v>
+        <v>61.754</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.037</v>
+        <v>0.01</v>
       </c>
       <c r="L26">
-        <v>0.139</v>
+        <v>0.15</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
@@ -2445,7 +2445,7 @@
         <v>81</v>
       </c>
       <c r="O26">
-        <v>-0.462</v>
+        <v>-0.617</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2459,7 +2459,7 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -2471,19 +2471,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-2.821</v>
+        <v>-2.364</v>
       </c>
       <c r="I27">
-        <v>61.297</v>
+        <v>54.614</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.006</v>
+        <v>0.022</v>
       </c>
       <c r="L27">
-        <v>0.045</v>
+        <v>0.33</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
@@ -2492,7 +2492,7 @@
         <v>82</v>
       </c>
       <c r="O27">
-        <v>-0.604</v>
+        <v>-0.533</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2506,11 +2506,11 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
         <v>21</v>
       </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
@@ -2518,19 +2518,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.926</v>
+        <v>0.292</v>
       </c>
       <c r="I28">
-        <v>68.67</v>
+        <v>82.28700000000001</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.358</v>
+        <v>0.771</v>
       </c>
       <c r="L28">
-        <v>0.491</v>
+        <v>1</v>
       </c>
       <c r="M28" t="s">
         <v>12</v>
@@ -2539,7 +2539,7 @@
         <v>83</v>
       </c>
       <c r="O28">
-        <v>0.19</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2553,7 +2553,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
@@ -2565,19 +2565,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>-1.955</v>
+        <v>-2.595</v>
       </c>
       <c r="I29">
-        <v>79.791</v>
+        <v>58.234</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.054</v>
+        <v>0.012</v>
       </c>
       <c r="L29">
-        <v>0.162</v>
+        <v>0.18</v>
       </c>
       <c r="M29" t="s">
         <v>12</v>
@@ -2586,7 +2586,7 @@
         <v>84</v>
       </c>
       <c r="O29">
-        <v>-0.426</v>
+        <v>-0.605</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2600,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
@@ -2612,19 +2612,19 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-3.181</v>
+        <v>-2.918</v>
       </c>
       <c r="I30">
-        <v>61.812</v>
+        <v>53.721</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="L30">
-        <v>0.03</v>
+        <v>0.075</v>
       </c>
       <c r="M30" t="s">
         <v>12</v>
@@ -2633,7 +2633,7 @@
         <v>85</v>
       </c>
       <c r="O30">
-        <v>-0.679</v>
+        <v>-0.663</v>
       </c>
     </row>
   </sheetData>
